--- a/excel/progress_template.xlsx
+++ b/excel/progress_template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>CfgId</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Properties</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t>#Comment</t>
   </si>
   <si>
     <t>cs</t>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1303,7 +1303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1326,9 +1326,6 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/excel/progress_template.xlsx
+++ b/excel/progress_template.xlsx
@@ -83,13 +83,13 @@
     <t>PVP次数达到X</t>
   </si>
   <si>
-    <t>IsPvp_1#IsWin_1</t>
+    <t>IsPvp_=_1;IsWin_=_1</t>
   </si>
   <si>
     <t>PVP胜场达到X</t>
   </si>
   <si>
-    <t>IsWin_1#RoomType_2;3#RoomLevel_&gt;_3#Score_[]_100;200</t>
+    <t>IsWin_=_1;RoomType_=_2,3;RoomLevel_&gt;_3;Score_[]_100,200</t>
   </si>
   <si>
     <t>匹配模式 房间等级&gt;3 得分在100-200之间 胜场达到X</t>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excel/progress_template.xlsx
+++ b/excel/progress_template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>CfgId</t>
   </si>
@@ -57,6 +57,34 @@
   </si>
   <si>
     <t>cs</t>
+  </si>
+  <si>
+    <t>#注释行</t>
+  </si>
+  <si>
+    <t>进度类型
+enum ProgressType</t>
+  </si>
+  <si>
+    <t>事件名,定义在progress.proto</t>
+  </si>
+  <si>
+    <t>数值类型的事件字段</t>
+  </si>
+  <si>
+    <t>字符串类型的事件字段</t>
+  </si>
+  <si>
+    <t>表示进度值的字段</t>
+  </si>
+  <si>
+    <t>是否有初始进度</t>
+  </si>
+  <si>
+    <t>K_V格式的动态属性</t>
+  </si>
+  <si>
+    <t>注释</t>
   </si>
   <si>
     <t>EventPlayerProperty</t>
@@ -720,9 +748,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1257,20 +1288,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="57.125" customWidth="1"/>
+    <col min="4" max="4" width="55.75" customWidth="1"/>
     <col min="5" max="5" width="23.75" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
     <col min="9" max="9" width="50.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1329,132 +1361,161 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="3" ht="44" customHeight="1" spans="1:9">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/excel/progress_template.xlsx
+++ b/excel/progress_template.xlsx
@@ -1291,7 +1291,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excel/progress_template.xlsx
+++ b/excel/progress_template.xlsx
@@ -26,6 +26,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>gy</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Event = 1 // 通用事件匹配</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">&gt;   大于
+&gt;=  大于等于
+=   等于,可以填多个值,如RoomLevel_=_2,3表示RoomLevel=2或3
+&lt;   小于
+&lt;=  小于等于
+!=  不等于,可以填多个值
+[]  在区间里,可以配置多个区间,如Score_[]_1,3,8,15表示Score在[1,3] 或[8,15]里
+![] 不在区间里,可以配置多个区间
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
@@ -69,7 +111,8 @@
     <t>事件名,定义在progress.proto</t>
   </si>
   <si>
-    <t>数值类型的事件字段</t>
+    <t>数值类型的事件字段的条件
+格式: 事件字段名_比较符_数值列表</t>
   </si>
   <si>
     <t>字符串类型的事件字段</t>
@@ -105,7 +148,7 @@
     <t>战斗次数达到X</t>
   </si>
   <si>
-    <t>IsPvp_1</t>
+    <t>IsPvp_=_1</t>
   </si>
   <si>
     <t>PVP次数达到X</t>
@@ -120,7 +163,7 @@
     <t>IsWin_=_1;RoomType_=_2,3;RoomLevel_&gt;_3;Score_[]_100,200</t>
   </si>
   <si>
-    <t>匹配模式 房间等级&gt;3 得分在100-200之间 胜场达到X</t>
+    <t>房间等级为2或3 得分在100-200之间 胜场达到X</t>
   </si>
   <si>
     <t>Property_TotalPay</t>
@@ -145,7 +188,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +339,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -748,9 +796,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1291,7 +1342,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1371,7 +1422,7 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
@@ -1521,5 +1572,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>